--- a/regs/results_tables.xlsx
+++ b/regs/results_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\Google Drive\DOUTORADO FGV\Artigos\EC 29-2000\ec29\regs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5A30A-55B3-41F9-A43B-2CFC99EBB44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0C02B-40E3-47BC-BAB4-F0C066F19187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first_stage" sheetId="8" r:id="rId1"/>
@@ -3674,7 +3674,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/regs/results_tables.xlsx
+++ b/regs/results_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michel\Google Drive\DOUTORADO FGV\Artigos\EC 29-2000\ec29\regs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD0C02B-40E3-47BC-BAB4-F0C066F19187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED91773-0756-40D0-83F2-05322A897E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first_stage" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="471">
   <si>
     <t>Health Spending per capita - Human Resources (log)</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>2SLS</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>hipertensão</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1546,6 +1552,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1865,7 +1874,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2254,7 +2263,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2362,7 +2371,7 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -2405,7 +2414,7 @@
       <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -2448,7 +2457,7 @@
       <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -2589,6 +2598,7 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2597,7 +2607,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2662,7 +2672,7 @@
       <c r="B4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>140</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -2897,7 +2907,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2962,7 +2972,7 @@
       <c r="B4" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3005,7 +3015,7 @@
       <c r="B6" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>204</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3048,7 +3058,7 @@
       <c r="B8" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="13" t="s">
         <v>206</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -3091,7 +3101,7 @@
       <c r="B10" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>208</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3134,7 +3144,7 @@
       <c r="B12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="13" t="s">
         <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -3202,7 +3212,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3267,7 +3277,7 @@
       <c r="B4" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="13" t="s">
         <v>274</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3310,7 +3320,7 @@
       <c r="B6" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="13" t="s">
         <v>275</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -3671,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6845258-3375-495A-B627-E53053AF5E27}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3868,7 +3878,7 @@
       <c r="B10" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>384</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -3997,7 +4007,7 @@
       <c r="B16" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="13" t="s">
         <v>390</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -4131,6 +4141,16 @@
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>470</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
